--- a/chapter_fixed/data/Barbells_Bullets.xlsx
+++ b/chapter_fixed/data/Barbells_Bullets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\Teaching\Investments\LN_202401\Lec03_Fixed Income\Lec03_SM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\teaching\BUSS254-Slides\chapter_fixed\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Maturity</t>
   </si>
@@ -204,6 +204,10 @@
   </si>
   <si>
     <t>a lot but outperforms if rates stay about the same.</t>
+  </si>
+  <si>
+    <t>Cash, consistent with market levels at the time, is assumed to have a
+yield of 0.05%.</t>
   </si>
 </sst>
 </file>
@@ -227,9 +231,58 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -239,9 +292,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -270,7 +328,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>446895</xdr:colOff>
+      <xdr:colOff>199245</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -584,15 +642,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -801,16 +859,16 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F28" t="s">
@@ -824,16 +882,16 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C29">
         <v>-7.05</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>107.05</v>
       </c>
       <c r="F29">
@@ -847,16 +905,16 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C30">
         <v>24.66</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>75.34</v>
       </c>
       <c r="F30">
@@ -870,16 +928,16 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C31">
         <v>30.86</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>69.14</v>
       </c>
       <c r="F31">
@@ -890,6 +948,11 @@
       </c>
       <c r="H31">
         <v>271.83999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
